--- a/docs/MIB_tree.xlsx
+++ b/docs/MIB_tree.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangy18\Desktop\workspace\snmp-agent\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangy18\Desktop\workspace\snmp-agent\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,87 +56,6 @@
     <t>Object Identifier</t>
   </si>
   <si>
-    <t>unityStorageObjects</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.2</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.3</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.4</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.5</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.6</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.7</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.8</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.9</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.10</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.11</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.12</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.13</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.14</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.15</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.16</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.17</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.18</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.19</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.20</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.21</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.22</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.23</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.24</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.25</t>
-  </si>
-  <si>
     <t>system.model</t>
   </si>
   <si>
@@ -239,72 +158,12 @@
     <t>storageProcessor.emcSerialNumber</t>
   </si>
   <si>
-    <t>1.3.6.1.4.1.1139.103.2.26</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.26.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.26.1.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.26.1.2</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.26.1.3</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.26.1.4</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.26.1.5</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.26.1.6</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.26.1.7</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.26.1.8</t>
-  </si>
-  <si>
     <t>mgmtInterface.ipAddress</t>
   </si>
   <si>
     <t>10.245.101.39</t>
   </si>
   <si>
-    <t>1.3.6.1.4.1.1139.103.2.27</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.27.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.27.1.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.27.1.2</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.27.1.3</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.27.1.4</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.27.1.5</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.26.1.9</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.26.1.10</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.26.1.11</t>
-  </si>
-  <si>
     <t>agentVersion</t>
   </si>
   <si>
@@ -617,12 +476,6 @@
     <t>portWriteBandwidth</t>
   </si>
   <si>
-    <t>1.3.6.1.4.1.1139.103.2.26.1.12</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.26.1.13</t>
-  </si>
-  <si>
     <t>DellEMC</t>
   </si>
   <si>
@@ -749,108 +602,6 @@
     <t>BBUHealthStatus</t>
   </si>
   <si>
-    <t>1.3.6.1.4.1.1139.103.2.28</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.2</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.3</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.4</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.5</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.6</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.7</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.8</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.9</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.10</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.2</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.3</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.4</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.5</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.6</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.7</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.30</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.30.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.30.1.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.30.1.2</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.30.1.3</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.30.1.4</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.31</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.31.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.31.1.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.31.1.2</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.31.1.4</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.31.1.5</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.31.1.7</t>
-  </si>
-  <si>
     <t>the number of storageProcessor</t>
   </si>
   <si>
@@ -1334,90 +1085,6 @@
     <t>numberOfBackendPort</t>
   </si>
   <si>
-    <t>1.3.6.1.4.1.1139.103.2.33</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.33.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.33.1.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.33.1.2</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.33.1.3</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.33.1.4</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.33.1.5</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.33.1.6</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.33.1.7</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.32</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.32.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.32.1.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.32.1.2</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.32.1.3</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.32.1.4</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.30.1.5</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.30.1.6</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.30.1.7</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.30.1.8</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.30.1.9</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.30.1.10</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.11</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.12</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.13</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.27.1.6</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.27.1.7</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.27.1.8</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.27.1.9</t>
-  </si>
-  <si>
     <t>frontendPortTable</t>
   </si>
   <si>
@@ -1517,186 +1184,6 @@
     <t>averagePower</t>
   </si>
   <si>
-    <t>1.3.6.1.4.1.1139.103.2.35</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.35.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.35.1.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.35.1.2</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.35.1.3</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.35.1.4</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.34</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.34.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.34.1.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.34.1.2</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.34.1.3</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.34.1.4</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.32.1.5</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.30.1.11</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.30.1.12</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.30.1.13</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.8</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.9</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.10</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.11</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.12</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.13</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.14</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.15</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.16</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.17</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.29.1.18</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.14</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.15</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.16</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.17</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.18</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.19</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.20</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.21</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.22</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.28.1.23</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.36</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.36.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.36.1.1</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.36.1.2</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.36.1.3</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.36.1.4</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.36.1.5</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.36.1.6</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.34.1.5</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.34.1.6</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.34.1.7</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.33.1.8</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.33.1.9</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.33.1.10</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.31.1.8</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.31.1.9</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.31.1.10</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.31.1.11</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.31.1.12</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.31.1.13</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.31.1.3</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.31.1.6</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.1139.103.2.31.1.14</t>
-  </si>
-  <si>
     <t>storageProcessorCpuUtilization</t>
   </si>
   <si>
@@ -1718,13 +1205,526 @@
     <t>enclosureCurrentTemperature</t>
   </si>
   <si>
-    <t>1.3.6.1.4.1.1139.103.2.33.1.11</t>
-  </si>
-  <si>
     <t>volumeDefaultStorageProcessor</t>
   </si>
   <si>
     <t>volumeCurrentStorageProcessor</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.2</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.3</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.4</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.5</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.6</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.7</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.8</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.9</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.10</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.11</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.12</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.13</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.14</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.15</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.16</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.17</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.18</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.19</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.20</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.21</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.22</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.23</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.24</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.25</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.26</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.26.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.26.1.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.26.1.2</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.26.1.3</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.26.1.4</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.26.1.5</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.26.1.6</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.26.1.7</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.26.1.8</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.26.1.9</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.26.1.10</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.26.1.11</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.26.1.12</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.26.1.13</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.27</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.27.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.27.1.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.27.1.2</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.27.1.3</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.27.1.4</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.27.1.5</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.27.1.6</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.27.1.7</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.27.1.8</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.27.1.9</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.2</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.3</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.4</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.5</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.6</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.7</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.8</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.9</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.10</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.11</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.12</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.13</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.14</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.15</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.16</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.17</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.18</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.19</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.20</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.21</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.22</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.28.1.23</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.2</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.3</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.4</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.5</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.6</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.7</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.8</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.9</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.10</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.11</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.12</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.13</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.14</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.15</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.16</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.17</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.29.1.18</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.30</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.30.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.30.1.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.30.1.2</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.30.1.3</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.30.1.4</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.30.1.5</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.30.1.6</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.30.1.7</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.30.1.8</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.30.1.9</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.30.1.10</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.30.1.11</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.30.1.12</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.30.1.13</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.31</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.31.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.31.1.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.31.1.2</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.31.1.3</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.31.1.4</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.31.1.5</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.31.1.6</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.31.1.7</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.31.1.8</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.31.1.9</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.31.1.10</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.31.1.11</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.31.1.12</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.31.1.13</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.31.1.14</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.32</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.32.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.32.1.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.32.1.2</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.32.1.3</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.32.1.4</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.32.1.5</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.33</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.33.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.33.1.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.33.1.2</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.33.1.3</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.33.1.4</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.33.1.5</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.33.1.6</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.33.1.7</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.33.1.8</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.33.1.9</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.33.1.10</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.33.1.11</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.34</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.34.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.34.1.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.34.1.2</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.34.1.3</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.34.1.4</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.34.1.5</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.34.1.6</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.34.1.7</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.35</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.35.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.35.1.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.35.1.2</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.35.1.3</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.35.1.4</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.36</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.36.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.36.1.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.36.1.2</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.36.1.3</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.36.1.4</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.36.1.5</t>
+  </si>
+  <si>
+    <t>1.3.6.1.4.1.1139.103.1.19.36.1.6</t>
+  </si>
+  <si>
+    <t>UnityPoll</t>
   </si>
 </sst>
 </file>
@@ -2072,15 +2072,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2091,6 +2082,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2111,19 +2105,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2131,6 +2122,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20095,947 +20095,947 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
-      <c r="C3" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="C3" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="5" t="s">
-        <v>271</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C4" s="2"/>
-      <c r="D4" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="6" t="s">
-        <v>272</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C5" s="2"/>
-      <c r="D5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
+      <c r="D5" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="6" t="s">
-        <v>273</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
-      <c r="D6" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
+      <c r="D6" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="6" t="s">
-        <v>274</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C7" s="2"/>
-      <c r="D7" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
+      <c r="D7" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="6" t="s">
-        <v>275</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C8" s="2"/>
-      <c r="D8" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
+      <c r="D8" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="6" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
-      <c r="D9" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="D9" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="6" t="s">
-        <v>277</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C10" s="2"/>
-      <c r="D10" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="D10" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="6" t="s">
-        <v>278</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C11" s="2"/>
-      <c r="D11" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="D11" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="6" t="s">
-        <v>279</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
-      <c r="D12" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="D12" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="6" t="s">
-        <v>280</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C13" s="2"/>
-      <c r="D13" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="D13" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="6" t="s">
-        <v>356</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C14" s="2"/>
-      <c r="D14" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
+      <c r="D14" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="6" t="s">
-        <v>357</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C15" s="2"/>
-      <c r="D15" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="D15" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="6" t="s">
-        <v>358</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C16" s="2"/>
-      <c r="D16" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="D16" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="6" t="s">
-        <v>281</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C17" s="2"/>
-      <c r="D17" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
+      <c r="D17" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="6" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
-      <c r="D18" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="D18" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
       <c r="K18" s="6" t="s">
-        <v>283</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
-      <c r="D19" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="D19" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="6" t="s">
-        <v>284</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
-      <c r="D20" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="D20" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
       <c r="K20" s="6" t="s">
-        <v>285</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
-      <c r="D21" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
+      <c r="D21" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="6" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C22" s="2"/>
-      <c r="D22" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
+      <c r="D22" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="5" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
+      <c r="E23" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="5" t="s">
-        <v>359</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
+      <c r="F24" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
       <c r="K24" s="6" t="s">
-        <v>360</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="39" t="s">
-        <v>351</v>
-      </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
+      <c r="F25" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="6" t="s">
-        <v>361</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="F26" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
       <c r="K26" s="6" t="s">
-        <v>362</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
+      <c r="F27" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
       <c r="K27" s="6" t="s">
-        <v>363</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="35"/>
+      <c r="F28" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="32"/>
       <c r="K28" s="6" t="s">
-        <v>364</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
+      <c r="F29" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="36"/>
       <c r="K29" s="6" t="s">
-        <v>365</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="35"/>
+      <c r="F30" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
       <c r="K30" s="6" t="s">
-        <v>366</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="35"/>
+      <c r="F31" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
       <c r="K31" s="6" t="s">
-        <v>367</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="35"/>
+      <c r="F32" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="32"/>
       <c r="K32" s="6" t="s">
-        <v>368</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="35"/>
+      <c r="F33" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
       <c r="K33" s="6" t="s">
-        <v>369</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
+      <c r="F34" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
       <c r="K34" s="6" t="s">
-        <v>370</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
+      <c r="F35" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="32"/>
       <c r="K35" s="6" t="s">
-        <v>371</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="35"/>
+      <c r="F36" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
       <c r="K36" s="6" t="s">
-        <v>372</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
+      <c r="F37" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
       <c r="K37" s="6" t="s">
-        <v>373</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="35"/>
+      <c r="F38" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
       <c r="K38" s="6" t="s">
-        <v>374</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="35"/>
+      <c r="F39" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
       <c r="K39" s="6" t="s">
-        <v>375</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="35"/>
+      <c r="F40" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
       <c r="K40" s="6" t="s">
-        <v>376</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
+      <c r="F41" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
       <c r="K41" s="6" t="s">
-        <v>377</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C42" s="2"/>
-      <c r="D42" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
+      <c r="D42" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
       <c r="K42" s="5" t="s">
-        <v>288</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
+      <c r="E43" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="5" t="s">
-        <v>378</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
+      <c r="F44" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
       <c r="K44" s="6" t="s">
-        <v>379</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="F45" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="32"/>
       <c r="K45" s="6" t="s">
-        <v>380</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="35"/>
+      <c r="F46" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="32"/>
       <c r="K46" s="6" t="s">
-        <v>381</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="35"/>
+      <c r="F47" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
       <c r="K47" s="6" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="35"/>
+      <c r="F48" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
       <c r="K48" s="6" t="s">
-        <v>383</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="35"/>
+      <c r="F49" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
       <c r="K49" s="6" t="s">
-        <v>384</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="35"/>
+      <c r="F50" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32"/>
       <c r="K50" s="6" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="35"/>
+      <c r="F51" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
       <c r="K51" s="6" t="s">
-        <v>386</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="35"/>
+      <c r="F52" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
       <c r="K52" s="6" t="s">
-        <v>387</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C53" s="2"/>
-      <c r="D53" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
+      <c r="D53" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
       <c r="K53" s="5" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
+      <c r="E54" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
       <c r="K54" s="5" t="s">
-        <v>390</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="35"/>
+      <c r="F55" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="32"/>
       <c r="K55" s="6" t="s">
-        <v>391</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="35"/>
+      <c r="F56" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
       <c r="K56" s="6" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="35"/>
+      <c r="F57" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
       <c r="K57" s="6" t="s">
-        <v>393</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="35"/>
+      <c r="F58" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="32"/>
       <c r="K58" s="6" t="s">
-        <v>394</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="35"/>
+      <c r="F59" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="32"/>
       <c r="K59" s="6" t="s">
-        <v>395</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="35"/>
+      <c r="F60" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
       <c r="K60" s="6" t="s">
-        <v>396</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="35"/>
+      <c r="F61" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
       <c r="K61" s="6" t="s">
-        <v>397</v>
+        <v>314</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
+      <c r="F62" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="32"/>
       <c r="K62" s="6" t="s">
-        <v>398</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="35"/>
+      <c r="F63" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="32"/>
       <c r="K63" s="6" t="s">
-        <v>399</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -21043,15 +21043,15 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="35"/>
+      <c r="F64" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="32"/>
       <c r="K64" s="6" t="s">
-        <v>400</v>
+        <v>317</v>
       </c>
       <c r="L64"/>
       <c r="M64"/>
@@ -21061,15 +21061,15 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="35"/>
+      <c r="F65" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
       <c r="K65" s="6" t="s">
-        <v>401</v>
+        <v>318</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
@@ -21079,15 +21079,15 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="35"/>
+      <c r="F66" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="32"/>
       <c r="K66" s="6" t="s">
-        <v>402</v>
+        <v>319</v>
       </c>
       <c r="L66"/>
       <c r="M66"/>
@@ -21097,15 +21097,15 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="35"/>
+      <c r="F67" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="32"/>
       <c r="K67" s="6" t="s">
-        <v>403</v>
+        <v>320</v>
       </c>
       <c r="L67"/>
       <c r="M67"/>
@@ -21115,15 +21115,15 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="35"/>
+      <c r="F68" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="32"/>
       <c r="K68" s="6" t="s">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="L68"/>
       <c r="M68"/>
@@ -21133,15 +21133,15 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="35"/>
+      <c r="F69" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
       <c r="K69" s="6" t="s">
-        <v>405</v>
+        <v>322</v>
       </c>
       <c r="L69"/>
       <c r="M69"/>
@@ -21151,15 +21151,15 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="35"/>
+      <c r="F70" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
       <c r="K70" s="6" t="s">
-        <v>406</v>
+        <v>323</v>
       </c>
       <c r="L70"/>
       <c r="M70"/>
@@ -21169,15 +21169,15 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
+      <c r="F71" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="32"/>
       <c r="K71" s="6" t="s">
-        <v>407</v>
+        <v>324</v>
       </c>
       <c r="L71"/>
       <c r="M71"/>
@@ -21187,15 +21187,15 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="35"/>
+      <c r="F72" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="32"/>
       <c r="K72" s="6" t="s">
-        <v>408</v>
+        <v>325</v>
       </c>
       <c r="L72"/>
       <c r="M72"/>
@@ -21205,15 +21205,15 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="35"/>
+      <c r="F73" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="32"/>
       <c r="K73" s="6" t="s">
-        <v>409</v>
+        <v>326</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -21223,15 +21223,15 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="35"/>
+      <c r="F74" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
       <c r="K74" s="6" t="s">
-        <v>410</v>
+        <v>327</v>
       </c>
       <c r="L74"/>
       <c r="M74"/>
@@ -21241,15 +21241,15 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="35"/>
+      <c r="F75" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="32"/>
       <c r="K75" s="6" t="s">
-        <v>411</v>
+        <v>328</v>
       </c>
       <c r="L75"/>
       <c r="M75"/>
@@ -21259,15 +21259,15 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="35"/>
+      <c r="F76" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="32"/>
       <c r="K76" s="6" t="s">
-        <v>412</v>
+        <v>329</v>
       </c>
       <c r="L76"/>
       <c r="M76"/>
@@ -21277,15 +21277,15 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="35"/>
+      <c r="F77" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="32"/>
       <c r="K77" s="6" t="s">
-        <v>413</v>
+        <v>330</v>
       </c>
       <c r="L77"/>
       <c r="M77"/>
@@ -21293,17 +21293,17 @@
     <row r="78" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B78"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
+      <c r="D78" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
       <c r="K78" s="5" t="s">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="L78"/>
       <c r="M78"/>
@@ -21312,16 +21312,16 @@
       <c r="B79"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="32" t="s">
-        <v>416</v>
-      </c>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
+      <c r="E79" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
       <c r="K79" s="5" t="s">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="L79"/>
       <c r="M79"/>
@@ -21331,15 +21331,15 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
+      <c r="F80" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="32"/>
       <c r="K80" s="6" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="L80"/>
       <c r="M80"/>
@@ -21349,15 +21349,15 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="35"/>
+      <c r="F81" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="32"/>
       <c r="K81" s="6" t="s">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="L81"/>
       <c r="M81"/>
@@ -21367,15 +21367,15 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="35"/>
+      <c r="F82" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="32"/>
       <c r="K82" s="6" t="s">
-        <v>294</v>
+        <v>211</v>
       </c>
       <c r="L82"/>
       <c r="M82"/>
@@ -21385,15 +21385,15 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="35"/>
+      <c r="F83" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
       <c r="K83" s="6" t="s">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
@@ -21403,15 +21403,15 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="35"/>
+      <c r="F84" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="32"/>
       <c r="K84" s="6" t="s">
-        <v>296</v>
+        <v>213</v>
       </c>
       <c r="L84"/>
       <c r="M84"/>
@@ -21421,15 +21421,15 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="35"/>
+      <c r="F85" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="32"/>
       <c r="K85" s="6" t="s">
-        <v>297</v>
+        <v>214</v>
       </c>
       <c r="L85"/>
       <c r="M85"/>
@@ -21439,15 +21439,15 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="35"/>
+      <c r="F86" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="32"/>
       <c r="K86" s="6" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="L86"/>
       <c r="M86"/>
@@ -21457,15 +21457,15 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="35"/>
+      <c r="F87" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
       <c r="K87" s="6" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
       <c r="L87"/>
       <c r="M87"/>
@@ -21475,15 +21475,15 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="35"/>
+      <c r="F88" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
       <c r="K88" s="6" t="s">
-        <v>300</v>
+        <v>217</v>
       </c>
       <c r="L88"/>
       <c r="M88"/>
@@ -21493,15 +21493,15 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
+      <c r="F89" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="32"/>
       <c r="K89" s="6" t="s">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
@@ -21511,15 +21511,15 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="35"/>
+      <c r="F90" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="32"/>
       <c r="K90" s="6" t="s">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="L90"/>
       <c r="M90"/>
@@ -21529,15 +21529,15 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="35"/>
+      <c r="F91" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="32"/>
       <c r="K91" s="6" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
@@ -21547,15 +21547,15 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="35"/>
+      <c r="F92" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
       <c r="K92" s="6" t="s">
-        <v>304</v>
+        <v>221</v>
       </c>
       <c r="L92"/>
       <c r="M92"/>
@@ -21565,15 +21565,15 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="35"/>
+      <c r="F93" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="32"/>
       <c r="K93" s="6" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="L93"/>
       <c r="M93"/>
@@ -21583,15 +21583,15 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="35"/>
+      <c r="F94" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="32"/>
       <c r="K94" s="6" t="s">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="L94"/>
       <c r="M94"/>
@@ -21601,15 +21601,15 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="35"/>
+      <c r="F95" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="32"/>
       <c r="K95" s="6" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
@@ -21618,60 +21618,60 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="35"/>
+      <c r="F96" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
       <c r="K96" s="6" t="s">
-        <v>354</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="2"/>
-      <c r="F97" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="35"/>
+      <c r="F97" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
       <c r="K97" s="6" t="s">
-        <v>355</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C98" s="2"/>
-      <c r="D98" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="32"/>
+      <c r="D98" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
       <c r="K98" s="5" t="s">
-        <v>308</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C99" s="1"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="32"/>
-      <c r="J99" s="32"/>
+      <c r="E99" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
       <c r="K99" s="5" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="3:11" x14ac:dyDescent="0.35">
@@ -21679,14 +21679,14 @@
       <c r="D100" s="1"/>
       <c r="E100" s="2"/>
       <c r="F100" s="10" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
       <c r="J100" s="12"/>
       <c r="K100" s="6" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
     </row>
     <row r="101" spans="3:11" x14ac:dyDescent="0.35">
@@ -21694,14 +21694,14 @@
       <c r="D101" s="1"/>
       <c r="E101" s="2"/>
       <c r="F101" s="10" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
       <c r="J101" s="12"/>
       <c r="K101" s="6" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102" spans="3:11" x14ac:dyDescent="0.35">
@@ -21709,14 +21709,14 @@
       <c r="D102" s="1"/>
       <c r="E102" s="2"/>
       <c r="F102" s="10" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
       <c r="J102" s="12"/>
       <c r="K102" s="6" t="s">
-        <v>312</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="3:11" x14ac:dyDescent="0.35">
@@ -21724,14 +21724,14 @@
       <c r="D103" s="1"/>
       <c r="E103" s="2"/>
       <c r="F103" s="10" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
       <c r="J103" s="12"/>
       <c r="K103" s="6" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104" spans="3:11" x14ac:dyDescent="0.35">
@@ -21739,14 +21739,14 @@
       <c r="D104" s="1"/>
       <c r="E104" s="2"/>
       <c r="F104" s="10" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
       <c r="J104" s="12"/>
       <c r="K104" s="6" t="s">
-        <v>314</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105" spans="3:11" x14ac:dyDescent="0.35">
@@ -21754,14 +21754,14 @@
       <c r="D105" s="1"/>
       <c r="E105" s="2"/>
       <c r="F105" s="10" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
       <c r="J105" s="12"/>
       <c r="K105" s="6" t="s">
-        <v>315</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="3:11" x14ac:dyDescent="0.35">
@@ -21769,14 +21769,14 @@
       <c r="D106" s="1"/>
       <c r="E106" s="2"/>
       <c r="F106" s="10" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
       <c r="J106" s="12"/>
       <c r="K106" s="6" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="3:11" x14ac:dyDescent="0.35">
@@ -21784,14 +21784,14 @@
       <c r="D107" s="1"/>
       <c r="E107" s="2"/>
       <c r="F107" s="10" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
       <c r="J107" s="12"/>
       <c r="K107" s="6" t="s">
-        <v>317</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="3:11" x14ac:dyDescent="0.35">
@@ -21799,14 +21799,14 @@
       <c r="D108" s="1"/>
       <c r="E108" s="2"/>
       <c r="F108" s="10" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
       <c r="J108" s="12"/>
       <c r="K108" s="6" t="s">
-        <v>318</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="3:11" x14ac:dyDescent="0.35">
@@ -21814,14 +21814,14 @@
       <c r="D109" s="1"/>
       <c r="E109" s="2"/>
       <c r="F109" s="10" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
       <c r="I109" s="11"/>
       <c r="J109" s="12"/>
       <c r="K109" s="6" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="3:11" x14ac:dyDescent="0.35">
@@ -21829,14 +21829,14 @@
       <c r="D110" s="1"/>
       <c r="E110" s="2"/>
       <c r="F110" s="10" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
       <c r="I110" s="11"/>
       <c r="J110" s="12"/>
       <c r="K110" s="6" t="s">
-        <v>320</v>
+        <v>237</v>
       </c>
     </row>
     <row r="111" spans="3:11" x14ac:dyDescent="0.35">
@@ -21844,210 +21844,159 @@
       <c r="D111" s="1"/>
       <c r="E111" s="2"/>
       <c r="F111" s="10" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
       <c r="J111" s="12"/>
       <c r="K111" s="6" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="2"/>
-      <c r="F112" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="G112" s="42"/>
-      <c r="H112" s="42"/>
-      <c r="I112" s="42"/>
-      <c r="J112" s="42"/>
+      <c r="F112" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="33"/>
+      <c r="J112" s="33"/>
       <c r="K112" s="7" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C113" s="2"/>
-      <c r="D113" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="E113" s="32"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="32"/>
-      <c r="J113" s="32"/>
+      <c r="D113" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
       <c r="K113" s="5" t="s">
-        <v>323</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C114" s="1"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="F114" s="32"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="32"/>
-      <c r="J114" s="32"/>
+      <c r="E114" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="29"/>
       <c r="K114" s="5" t="s">
-        <v>324</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="2"/>
-      <c r="F115" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G115" s="34"/>
-      <c r="H115" s="34"/>
-      <c r="I115" s="34"/>
-      <c r="J115" s="35"/>
+      <c r="F115" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G115" s="31"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31"/>
+      <c r="J115" s="32"/>
       <c r="K115" s="6" t="s">
-        <v>325</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="2"/>
-      <c r="F116" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="G116" s="34"/>
-      <c r="H116" s="34"/>
-      <c r="I116" s="34"/>
-      <c r="J116" s="35"/>
+      <c r="F116" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G116" s="31"/>
+      <c r="H116" s="31"/>
+      <c r="I116" s="31"/>
+      <c r="J116" s="32"/>
       <c r="K116" s="6" t="s">
-        <v>326</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="2"/>
-      <c r="F117" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="34"/>
-      <c r="J117" s="35"/>
+      <c r="F117" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
+      <c r="J117" s="32"/>
       <c r="K117" s="6" t="s">
-        <v>327</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="2"/>
-      <c r="F118" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
-      <c r="J118" s="35"/>
+      <c r="F118" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="31"/>
+      <c r="J118" s="32"/>
       <c r="K118" s="6" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34"/>
-      <c r="J119" s="35"/>
+      <c r="F119" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="32"/>
       <c r="K119" s="6" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="E114:J114"/>
-    <mergeCell ref="F115:J115"/>
-    <mergeCell ref="F116:J116"/>
-    <mergeCell ref="F117:J117"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="F119:J119"/>
-    <mergeCell ref="F96:J96"/>
-    <mergeCell ref="F97:J97"/>
-    <mergeCell ref="D98:J98"/>
-    <mergeCell ref="E99:J99"/>
-    <mergeCell ref="F112:J112"/>
-    <mergeCell ref="D113:J113"/>
-    <mergeCell ref="F90:J90"/>
-    <mergeCell ref="F91:J91"/>
-    <mergeCell ref="F92:J92"/>
-    <mergeCell ref="F93:J93"/>
-    <mergeCell ref="F94:J94"/>
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="F89:J89"/>
-    <mergeCell ref="D78:J78"/>
-    <mergeCell ref="E79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
     <mergeCell ref="F30:J30"/>
     <mergeCell ref="F31:J31"/>
     <mergeCell ref="F32:J32"/>
@@ -22062,27 +22011,78 @@
     <mergeCell ref="F29:J29"/>
     <mergeCell ref="F25:J25"/>
     <mergeCell ref="F27:J27"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="D78:J78"/>
+    <mergeCell ref="E79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F90:J90"/>
+    <mergeCell ref="F91:J91"/>
+    <mergeCell ref="F92:J92"/>
+    <mergeCell ref="F93:J93"/>
+    <mergeCell ref="F94:J94"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="F89:J89"/>
+    <mergeCell ref="E114:J114"/>
+    <mergeCell ref="F115:J115"/>
+    <mergeCell ref="F116:J116"/>
+    <mergeCell ref="F117:J117"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="F119:J119"/>
+    <mergeCell ref="F96:J96"/>
+    <mergeCell ref="F97:J97"/>
+    <mergeCell ref="D98:J98"/>
+    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="F112:J112"/>
+    <mergeCell ref="D113:J113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22095,10 +22095,10 @@
   <dimension ref="B1:M173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F64" sqref="F64:J64"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22106,59 +22106,59 @@
     <col min="1" max="1" width="6.1796875" customWidth="1"/>
     <col min="2" max="5" width="3.54296875" customWidth="1"/>
     <col min="10" max="10" width="5.81640625" customWidth="1"/>
-    <col min="11" max="11" width="28.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="34.7265625" customWidth="1"/>
     <col min="13" max="13" width="26.453125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
       <c r="K2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="15"/>
-      <c r="C3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="C3" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="5" t="s">
-        <v>3</v>
+        <v>387</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="17"/>
@@ -22166,20 +22166,20 @@
     <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="6" t="s">
-        <v>4</v>
+        <v>388</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="M4" s="20">
         <v>1</v>
@@ -22188,20 +22188,20 @@
     <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
+      <c r="D5" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="6" t="s">
-        <v>5</v>
+        <v>389</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="M5" s="20">
         <v>1</v>
@@ -22210,174 +22210,174 @@
     <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
+      <c r="D6" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="6" t="s">
-        <v>6</v>
+        <v>390</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
+      <c r="D7" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="6" t="s">
-        <v>7</v>
+        <v>391</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
+      <c r="D8" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="6" t="s">
-        <v>8</v>
+        <v>392</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="D9" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="6" t="s">
-        <v>9</v>
+        <v>393</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
+      <c r="D10" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="6" t="s">
-        <v>10</v>
+        <v>394</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="45" t="s">
-        <v>487</v>
-      </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
+      <c r="D11" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="6" t="s">
-        <v>11</v>
+        <v>395</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="45" t="s">
-        <v>488</v>
-      </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
+      <c r="D12" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
       <c r="K12" s="6" t="s">
-        <v>12</v>
+        <v>396</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="D13" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="6" t="s">
-        <v>13</v>
+        <v>397</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>267</v>
+        <v>184</v>
       </c>
       <c r="M13" s="17">
         <v>2</v>
@@ -22386,20 +22386,20 @@
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
+      <c r="D14" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
       <c r="K14" s="6" t="s">
-        <v>14</v>
+        <v>398</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>268</v>
+        <v>185</v>
       </c>
       <c r="M14" s="17">
         <v>2</v>
@@ -22408,20 +22408,20 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="D15" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="6" t="s">
-        <v>15</v>
+        <v>399</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>269</v>
+        <v>186</v>
       </c>
       <c r="M15" s="17">
         <v>4</v>
@@ -22430,20 +22430,20 @@
     <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
+      <c r="D16" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
       <c r="K16" s="6" t="s">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="M16" s="17">
         <v>10</v>
@@ -22452,20 +22452,20 @@
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
+      <c r="D17" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="6" t="s">
-        <v>17</v>
+        <v>401</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M17" s="17">
         <v>40</v>
@@ -22474,17 +22474,17 @@
     <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="45" t="s">
-        <v>426</v>
-      </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
+      <c r="D18" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
       <c r="K18" s="6" t="s">
-        <v>18</v>
+        <v>402</v>
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="17"/>
@@ -22492,17 +22492,17 @@
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="45" t="s">
-        <v>427</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
+      <c r="D19" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
       <c r="K19" s="6" t="s">
-        <v>19</v>
+        <v>403</v>
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="17"/>
@@ -22510,20 +22510,20 @@
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="D20" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
       <c r="K20" s="6" t="s">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="M20" s="21">
         <v>5044975960064</v>
@@ -22532,20 +22532,20 @@
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
+      <c r="D21" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="6" t="s">
-        <v>21</v>
+        <v>405</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="M21" s="21">
         <v>156766306304</v>
@@ -22554,20 +22554,20 @@
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
+      <c r="D22" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="6" t="s">
-        <v>22</v>
+        <v>406</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="M22" s="21">
         <v>4888209653760</v>
@@ -22576,17 +22576,17 @@
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="D23" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
       <c r="K23" s="6" t="s">
-        <v>23</v>
+        <v>407</v>
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="17"/>
@@ -22594,17 +22594,17 @@
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
+      <c r="D24" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
       <c r="K24" s="6" t="s">
-        <v>24</v>
+        <v>408</v>
       </c>
       <c r="L24" s="16"/>
       <c r="M24" s="17"/>
@@ -22612,17 +22612,17 @@
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
+      <c r="D25" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
       <c r="K25" s="6" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="17"/>
@@ -22630,17 +22630,17 @@
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
+      <c r="D26" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
       <c r="K26" s="6" t="s">
-        <v>26</v>
+        <v>410</v>
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="17"/>
@@ -22648,17 +22648,17 @@
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
+      <c r="D27" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="6" t="s">
-        <v>27</v>
+        <v>411</v>
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
@@ -22666,17 +22666,17 @@
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
+      <c r="D28" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="6" t="s">
-        <v>28</v>
+        <v>412</v>
       </c>
       <c r="L28" s="16"/>
       <c r="M28" s="17"/>
@@ -22684,17 +22684,17 @@
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
+      <c r="D29" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
       <c r="K29" s="5" t="s">
-        <v>63</v>
+        <v>413</v>
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="17"/>
@@ -22703,16 +22703,16 @@
       <c r="B30" s="18"/>
       <c r="C30" s="22"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
+      <c r="E30" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
       <c r="K30" s="5" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="17"/>
@@ -22722,21 +22722,21 @@
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="19"/>
-      <c r="F31" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
+      <c r="F31" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
       <c r="K31" s="6" t="s">
-        <v>65</v>
+        <v>415</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.35">
@@ -22744,21 +22744,21 @@
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="F32" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
       <c r="K32" s="6" t="s">
-        <v>66</v>
+        <v>416</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.35">
@@ -22766,18 +22766,18 @@
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
+      <c r="F33" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
       <c r="K33" s="6" t="s">
-        <v>67</v>
+        <v>417</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="M33" s="17"/>
     </row>
@@ -22786,18 +22786,18 @@
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="29" t="s">
-        <v>549</v>
-      </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
+      <c r="F34" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
       <c r="K34" s="6" t="s">
-        <v>68</v>
+        <v>418</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="M34" s="17"/>
     </row>
@@ -22806,15 +22806,15 @@
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
+      <c r="F35" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
       <c r="K35" s="6" t="s">
-        <v>69</v>
+        <v>419</v>
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="17"/>
@@ -22824,15 +22824,15 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
+      <c r="F36" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
       <c r="K36" s="6" t="s">
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="L36" s="16"/>
       <c r="M36" s="17"/>
@@ -22842,15 +22842,15 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="19"/>
-      <c r="F37" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
+      <c r="F37" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
       <c r="K37" s="6" t="s">
-        <v>71</v>
+        <v>421</v>
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="17"/>
@@ -22860,15 +22860,15 @@
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
+      <c r="F38" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
       <c r="K38" s="6" t="s">
-        <v>72</v>
+        <v>422</v>
       </c>
       <c r="L38" s="16"/>
       <c r="M38" s="17"/>
@@ -22878,15 +22878,15 @@
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
+      <c r="F39" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
       <c r="K39" s="6" t="s">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="17"/>
@@ -22896,15 +22896,15 @@
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
+      <c r="F40" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
       <c r="K40" s="6" t="s">
-        <v>83</v>
+        <v>424</v>
       </c>
       <c r="L40" s="16"/>
       <c r="M40" s="17"/>
@@ -22914,15 +22914,15 @@
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="29" t="s">
-        <v>550</v>
-      </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
+      <c r="F41" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
       <c r="K41" s="6" t="s">
-        <v>84</v>
+        <v>425</v>
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="17"/>
@@ -22932,15 +22932,15 @@
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
+      <c r="F42" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
       <c r="K42" s="6" t="s">
-        <v>189</v>
+        <v>426</v>
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="17"/>
@@ -22950,15 +22950,15 @@
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
+      <c r="F43" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
       <c r="K43" s="6" t="s">
-        <v>190</v>
+        <v>427</v>
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="17"/>
@@ -22966,17 +22966,17 @@
     <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
+      <c r="D44" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
       <c r="K44" s="5" t="s">
-        <v>75</v>
+        <v>428</v>
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="17"/>
@@ -22985,16 +22985,16 @@
       <c r="B45" s="18"/>
       <c r="C45" s="22"/>
       <c r="D45" s="19"/>
-      <c r="E45" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
+      <c r="E45" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
       <c r="K45" s="5" t="s">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="17"/>
@@ -23004,15 +23004,15 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
+      <c r="F46" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
       <c r="K46" s="6" t="s">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="17"/>
@@ -23022,15 +23022,15 @@
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
+      <c r="F47" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
       <c r="K47" s="6" t="s">
-        <v>78</v>
+        <v>431</v>
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="17"/>
@@ -23040,15 +23040,15 @@
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="19"/>
-      <c r="F48" s="29" t="s">
-        <v>551</v>
-      </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
+      <c r="F48" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
       <c r="K48" s="6" t="s">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="17"/>
@@ -23058,15 +23058,15 @@
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="19"/>
-      <c r="F49" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
+      <c r="F49" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
       <c r="K49" s="6" t="s">
-        <v>80</v>
+        <v>433</v>
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="17"/>
@@ -23076,15 +23076,15 @@
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="19"/>
-      <c r="F50" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
+      <c r="F50" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
       <c r="K50" s="6" t="s">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="17"/>
@@ -23094,15 +23094,15 @@
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="19"/>
-      <c r="F51" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
+      <c r="F51" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
       <c r="K51" s="6" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="17"/>
@@ -23112,15 +23112,15 @@
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="19"/>
-      <c r="F52" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
+      <c r="F52" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
       <c r="K52" s="6" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="L52" s="16"/>
       <c r="M52" s="17"/>
@@ -23130,15 +23130,15 @@
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="19"/>
-      <c r="F53" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
+      <c r="F53" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
       <c r="K53" s="6" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="17"/>
@@ -23148,15 +23148,15 @@
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="19"/>
-      <c r="F54" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
+      <c r="F54" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
       <c r="K54" s="6" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="L54" s="16"/>
       <c r="M54" s="17"/>
@@ -23164,17 +23164,17 @@
     <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
-      <c r="D55" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
+      <c r="D55" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
       <c r="K55" s="5" t="s">
-        <v>233</v>
+        <v>439</v>
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="17"/>
@@ -23183,16 +23183,16 @@
       <c r="B56" s="18"/>
       <c r="C56" s="22"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
+      <c r="E56" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
       <c r="K56" s="5" t="s">
-        <v>234</v>
+        <v>440</v>
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="17"/>
@@ -23202,15 +23202,15 @@
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
       <c r="E57" s="19"/>
-      <c r="F57" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
+      <c r="F57" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
       <c r="K57" s="6" t="s">
-        <v>235</v>
+        <v>441</v>
       </c>
       <c r="L57" s="16"/>
       <c r="M57" s="17"/>
@@ -23220,15 +23220,15 @@
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
       <c r="E58" s="19"/>
-      <c r="F58" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
+      <c r="F58" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
       <c r="K58" s="6" t="s">
-        <v>236</v>
+        <v>442</v>
       </c>
       <c r="L58" s="16"/>
       <c r="M58" s="17"/>
@@ -23238,15 +23238,15 @@
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="19"/>
-      <c r="F59" s="29" t="s">
-        <v>552</v>
-      </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
+      <c r="F59" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
       <c r="K59" s="6" t="s">
-        <v>237</v>
+        <v>443</v>
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="17"/>
@@ -23256,15 +23256,15 @@
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
       <c r="E60" s="19"/>
-      <c r="F60" s="29" t="s">
-        <v>553</v>
-      </c>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
+      <c r="F60" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
       <c r="K60" s="6" t="s">
-        <v>238</v>
+        <v>444</v>
       </c>
       <c r="L60" s="16"/>
       <c r="M60" s="17"/>
@@ -23274,15 +23274,15 @@
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
       <c r="E61" s="19"/>
-      <c r="F61" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
+      <c r="F61" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
       <c r="K61" s="6" t="s">
-        <v>239</v>
+        <v>445</v>
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="17"/>
@@ -23292,15 +23292,15 @@
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
       <c r="E62" s="19"/>
-      <c r="F62" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
+      <c r="F62" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
       <c r="K62" s="6" t="s">
-        <v>240</v>
+        <v>446</v>
       </c>
       <c r="L62" s="16"/>
       <c r="M62" s="17"/>
@@ -23310,15 +23310,15 @@
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
       <c r="E63" s="19"/>
-      <c r="F63" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
+      <c r="F63" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
       <c r="K63" s="6" t="s">
-        <v>241</v>
+        <v>447</v>
       </c>
       <c r="L63" s="16"/>
       <c r="M63" s="17"/>
@@ -23328,15 +23328,15 @@
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
       <c r="E64" s="19"/>
-      <c r="F64" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
+      <c r="F64" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
       <c r="K64" s="6" t="s">
-        <v>242</v>
+        <v>448</v>
       </c>
       <c r="L64" s="16"/>
       <c r="M64" s="17"/>
@@ -23346,15 +23346,15 @@
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
       <c r="E65" s="19"/>
-      <c r="F65" s="29" t="s">
-        <v>558</v>
-      </c>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
+      <c r="F65" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
       <c r="K65" s="6" t="s">
-        <v>243</v>
+        <v>449</v>
       </c>
       <c r="L65" s="16"/>
       <c r="M65" s="17"/>
@@ -23364,15 +23364,15 @@
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
       <c r="E66" s="19"/>
-      <c r="F66" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
+      <c r="F66" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
       <c r="K66" s="6" t="s">
-        <v>244</v>
+        <v>450</v>
       </c>
       <c r="L66" s="16"/>
       <c r="M66" s="17"/>
@@ -23382,15 +23382,15 @@
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
       <c r="E67" s="19"/>
-      <c r="F67" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
+      <c r="F67" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
       <c r="K67" s="6" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L67" s="16"/>
       <c r="M67" s="17"/>
@@ -23400,18 +23400,18 @@
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
       <c r="E68" s="19"/>
-      <c r="F68" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
+      <c r="F68" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
       <c r="K68" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L68" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="M68" s="17"/>
     </row>
@@ -23420,18 +23420,18 @@
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
       <c r="E69" s="19"/>
-      <c r="F69" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
+      <c r="F69" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
       <c r="K69" s="6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L69" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -23440,18 +23440,18 @@
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="19"/>
-      <c r="F70" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
+      <c r="F70" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
       <c r="K70" s="6" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
       <c r="L70" s="16" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -23460,18 +23460,18 @@
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
       <c r="E71" s="19"/>
-      <c r="F71" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
+      <c r="F71" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
       <c r="K71" s="6" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
       <c r="L71" s="16" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="M71" s="17"/>
     </row>
@@ -23480,18 +23480,18 @@
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
       <c r="E72" s="19"/>
-      <c r="F72" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
+      <c r="F72" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
       <c r="K72" s="6" t="s">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="L72" s="16" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="M72" s="17"/>
     </row>
@@ -23500,18 +23500,18 @@
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
       <c r="E73" s="19"/>
-      <c r="F73" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
+      <c r="F73" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
       <c r="K73" s="6" t="s">
-        <v>519</v>
+        <v>457</v>
       </c>
       <c r="L73" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="M73" s="17"/>
     </row>
@@ -23520,15 +23520,15 @@
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
       <c r="E74" s="19"/>
-      <c r="F74" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
+      <c r="F74" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
       <c r="K74" s="6" t="s">
-        <v>520</v>
+        <v>458</v>
       </c>
       <c r="L74" s="16"/>
       <c r="M74" s="17"/>
@@ -23538,15 +23538,15 @@
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
       <c r="E75" s="19"/>
-      <c r="F75" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
+      <c r="F75" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
       <c r="K75" s="6" t="s">
-        <v>521</v>
+        <v>459</v>
       </c>
       <c r="L75" s="16"/>
       <c r="M75" s="17"/>
@@ -23556,15 +23556,15 @@
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
       <c r="E76" s="19"/>
-      <c r="F76" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
+      <c r="F76" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
       <c r="K76" s="6" t="s">
-        <v>522</v>
+        <v>460</v>
       </c>
       <c r="L76" s="16"/>
       <c r="M76" s="17"/>
@@ -23574,15 +23574,15 @@
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
       <c r="E77" s="19"/>
-      <c r="F77" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
+      <c r="F77" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
       <c r="K77" s="6" t="s">
-        <v>523</v>
+        <v>461</v>
       </c>
       <c r="L77" s="16"/>
       <c r="M77" s="17"/>
@@ -23592,15 +23592,15 @@
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
       <c r="E78" s="19"/>
-      <c r="F78" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
+      <c r="F78" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
       <c r="K78" s="6" t="s">
-        <v>524</v>
+        <v>462</v>
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="17"/>
@@ -23610,35 +23610,35 @@
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
       <c r="E79" s="19"/>
-      <c r="F79" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
+      <c r="F79" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
       <c r="K79" s="6" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L79" s="16" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M79" s="17"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
-      <c r="D80" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
+      <c r="D80" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
       <c r="K80" s="5" t="s">
-        <v>245</v>
+        <v>464</v>
       </c>
       <c r="L80" s="16"/>
       <c r="M80" s="17"/>
@@ -23647,16 +23647,16 @@
       <c r="B81" s="18"/>
       <c r="C81" s="22"/>
       <c r="D81" s="19"/>
-      <c r="E81" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="32"/>
+      <c r="E81" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
       <c r="K81" s="5" t="s">
-        <v>246</v>
+        <v>465</v>
       </c>
       <c r="L81" s="16"/>
       <c r="M81" s="17"/>
@@ -23666,15 +23666,15 @@
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
       <c r="E82" s="19"/>
-      <c r="F82" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
+      <c r="F82" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
       <c r="K82" s="6" t="s">
-        <v>247</v>
+        <v>466</v>
       </c>
       <c r="L82" s="16"/>
       <c r="M82" s="17"/>
@@ -23684,15 +23684,15 @@
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
       <c r="E83" s="19"/>
-      <c r="F83" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
+      <c r="F83" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
       <c r="K83" s="6" t="s">
-        <v>248</v>
+        <v>467</v>
       </c>
       <c r="L83" s="16"/>
       <c r="M83" s="17"/>
@@ -23702,15 +23702,15 @@
       <c r="C84" s="22"/>
       <c r="D84" s="22"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
+      <c r="F84" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="40"/>
       <c r="K84" s="6" t="s">
-        <v>249</v>
+        <v>468</v>
       </c>
       <c r="L84" s="16"/>
       <c r="M84" s="17"/>
@@ -23720,15 +23720,15 @@
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
       <c r="E85" s="19"/>
-      <c r="F85" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
+      <c r="F85" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="40"/>
       <c r="K85" s="6" t="s">
-        <v>250</v>
+        <v>469</v>
       </c>
       <c r="L85" s="16"/>
       <c r="M85" s="17"/>
@@ -23738,15 +23738,15 @@
       <c r="C86" s="22"/>
       <c r="D86" s="22"/>
       <c r="E86" s="19"/>
-      <c r="F86" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
+      <c r="F86" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
       <c r="K86" s="6" t="s">
-        <v>251</v>
+        <v>470</v>
       </c>
       <c r="L86" s="16"/>
       <c r="M86" s="17"/>
@@ -23756,15 +23756,15 @@
       <c r="C87" s="22"/>
       <c r="D87" s="22"/>
       <c r="E87" s="19"/>
-      <c r="F87" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="29"/>
+      <c r="F87" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
       <c r="K87" s="6" t="s">
-        <v>252</v>
+        <v>471</v>
       </c>
       <c r="L87" s="16"/>
       <c r="M87" s="17"/>
@@ -23774,15 +23774,15 @@
       <c r="C88" s="22"/>
       <c r="D88" s="22"/>
       <c r="E88" s="19"/>
-      <c r="F88" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="29"/>
+      <c r="F88" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
       <c r="K88" s="6" t="s">
-        <v>253</v>
+        <v>472</v>
       </c>
       <c r="L88" s="16"/>
       <c r="M88" s="17"/>
@@ -23792,15 +23792,15 @@
       <c r="C89" s="22"/>
       <c r="D89" s="22"/>
       <c r="E89" s="19"/>
-      <c r="F89" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="29"/>
+      <c r="F89" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
       <c r="K89" s="6" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="17"/>
@@ -23810,15 +23810,15 @@
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
       <c r="E90" s="19"/>
-      <c r="F90" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
+      <c r="F90" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
       <c r="K90" s="6" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="L90" s="16"/>
       <c r="M90" s="17"/>
@@ -23828,15 +23828,15 @@
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
       <c r="E91" s="19"/>
-      <c r="F91" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="29"/>
+      <c r="F91" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="40"/>
       <c r="K91" s="6" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="L91" s="16"/>
       <c r="M91" s="17"/>
@@ -23846,18 +23846,18 @@
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
       <c r="E92" s="19"/>
-      <c r="F92" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="29"/>
+      <c r="F92" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="40"/>
       <c r="K92" s="6" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="L92" s="16" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="M92" s="17"/>
     </row>
@@ -23866,18 +23866,18 @@
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
       <c r="E93" s="19"/>
-      <c r="F93" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="29"/>
+      <c r="F93" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="40"/>
       <c r="K93" s="6" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="L93" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="M93" s="17"/>
     </row>
@@ -23886,18 +23886,18 @@
       <c r="C94" s="22"/>
       <c r="D94" s="22"/>
       <c r="E94" s="19"/>
-      <c r="F94" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="29"/>
+      <c r="F94" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="40"/>
       <c r="K94" s="6" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="L94" s="16" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M94" s="17"/>
     </row>
@@ -23906,18 +23906,18 @@
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
       <c r="E95" s="19"/>
-      <c r="F95" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="29"/>
+      <c r="F95" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="40"/>
       <c r="K95" s="6" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="L95" s="16" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="M95" s="17"/>
     </row>
@@ -23926,15 +23926,15 @@
       <c r="C96" s="22"/>
       <c r="D96" s="22"/>
       <c r="E96" s="19"/>
-      <c r="F96" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="29"/>
+      <c r="F96" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="40"/>
       <c r="K96" s="6" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="L96" s="16"/>
       <c r="M96" s="17"/>
@@ -23944,15 +23944,15 @@
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
       <c r="E97" s="19"/>
-      <c r="F97" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="29"/>
+      <c r="F97" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="40"/>
       <c r="K97" s="6" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="L97" s="16"/>
       <c r="M97" s="17"/>
@@ -23962,18 +23962,18 @@
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
       <c r="E98" s="19"/>
-      <c r="F98" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="29"/>
+      <c r="F98" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="40"/>
       <c r="K98" s="6" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="L98" s="16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M98" s="17"/>
     </row>
@@ -23982,35 +23982,35 @@
       <c r="C99" s="22"/>
       <c r="D99" s="22"/>
       <c r="E99" s="19"/>
-      <c r="F99" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
+      <c r="F99" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="40"/>
       <c r="K99" s="6" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="L99" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="M99" s="17"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B100" s="18"/>
       <c r="C100" s="19"/>
-      <c r="D100" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32"/>
+      <c r="D100" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
       <c r="K100" s="5" t="s">
-        <v>254</v>
+        <v>484</v>
       </c>
       <c r="L100" s="16"/>
       <c r="M100" s="17"/>
@@ -24019,16 +24019,16 @@
       <c r="B101" s="18"/>
       <c r="C101" s="22"/>
       <c r="D101" s="19"/>
-      <c r="E101" s="32" t="s">
-        <v>460</v>
-      </c>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32"/>
-      <c r="J101" s="32"/>
+      <c r="E101" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
       <c r="K101" s="5" t="s">
-        <v>255</v>
+        <v>485</v>
       </c>
       <c r="L101" s="16"/>
       <c r="M101" s="17"/>
@@ -24038,15 +24038,15 @@
       <c r="C102" s="22"/>
       <c r="D102" s="22"/>
       <c r="E102" s="19"/>
-      <c r="F102" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="35"/>
+      <c r="F102" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="G102" s="31"/>
+      <c r="H102" s="31"/>
+      <c r="I102" s="31"/>
+      <c r="J102" s="32"/>
       <c r="K102" s="6" t="s">
-        <v>256</v>
+        <v>486</v>
       </c>
       <c r="L102" s="16"/>
       <c r="M102" s="17"/>
@@ -24056,15 +24056,15 @@
       <c r="C103" s="22"/>
       <c r="D103" s="22"/>
       <c r="E103" s="19"/>
-      <c r="F103" s="33" t="s">
-        <v>458</v>
-      </c>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="34"/>
-      <c r="J103" s="35"/>
+      <c r="F103" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="31"/>
+      <c r="J103" s="32"/>
       <c r="K103" s="6" t="s">
-        <v>257</v>
+        <v>487</v>
       </c>
       <c r="L103" s="16"/>
       <c r="M103" s="17"/>
@@ -24074,15 +24074,15 @@
       <c r="C104" s="22"/>
       <c r="D104" s="22"/>
       <c r="E104" s="19"/>
-      <c r="F104" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="G104" s="34"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="34"/>
-      <c r="J104" s="35"/>
+      <c r="F104" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="31"/>
+      <c r="J104" s="32"/>
       <c r="K104" s="6" t="s">
-        <v>258</v>
+        <v>488</v>
       </c>
       <c r="L104" s="16"/>
       <c r="M104" s="17"/>
@@ -24092,15 +24092,15 @@
       <c r="C105" s="22"/>
       <c r="D105" s="22"/>
       <c r="E105" s="19"/>
-      <c r="F105" s="33" t="s">
-        <v>461</v>
-      </c>
-      <c r="G105" s="34"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="34"/>
-      <c r="J105" s="35"/>
+      <c r="F105" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="31"/>
+      <c r="J105" s="32"/>
       <c r="K105" s="6" t="s">
-        <v>259</v>
+        <v>489</v>
       </c>
       <c r="L105" s="16"/>
       <c r="M105" s="17"/>
@@ -24110,15 +24110,15 @@
       <c r="C106" s="22"/>
       <c r="D106" s="22"/>
       <c r="E106" s="19"/>
-      <c r="F106" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="35"/>
+      <c r="F106" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="G106" s="31"/>
+      <c r="H106" s="31"/>
+      <c r="I106" s="31"/>
+      <c r="J106" s="32"/>
       <c r="K106" s="6" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="L106" s="16"/>
       <c r="M106" s="17"/>
@@ -24128,15 +24128,15 @@
       <c r="C107" s="22"/>
       <c r="D107" s="22"/>
       <c r="E107" s="19"/>
-      <c r="F107" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="G107" s="34"/>
-      <c r="H107" s="34"/>
-      <c r="I107" s="34"/>
-      <c r="J107" s="35"/>
+      <c r="F107" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="G107" s="31"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="32"/>
       <c r="K107" s="6" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="L107" s="16"/>
       <c r="M107" s="17"/>
@@ -24146,15 +24146,15 @@
       <c r="C108" s="22"/>
       <c r="D108" s="22"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="G108" s="34"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="34"/>
-      <c r="J108" s="35"/>
+      <c r="F108" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="32"/>
       <c r="K108" s="6" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="L108" s="16"/>
       <c r="M108" s="17"/>
@@ -24164,18 +24164,18 @@
       <c r="C109" s="22"/>
       <c r="D109" s="22"/>
       <c r="E109" s="19"/>
-      <c r="F109" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="G109" s="34"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="34"/>
-      <c r="J109" s="35"/>
+      <c r="F109" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="G109" s="31"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="31"/>
+      <c r="J109" s="32"/>
       <c r="K109" s="6" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="L109" s="16" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M109" s="17"/>
     </row>
@@ -24184,18 +24184,18 @@
       <c r="C110" s="22"/>
       <c r="D110" s="22"/>
       <c r="E110" s="19"/>
-      <c r="F110" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="G110" s="34"/>
-      <c r="H110" s="34"/>
-      <c r="I110" s="34"/>
-      <c r="J110" s="35"/>
+      <c r="F110" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="G110" s="31"/>
+      <c r="H110" s="31"/>
+      <c r="I110" s="31"/>
+      <c r="J110" s="32"/>
       <c r="K110" s="6" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
       <c r="L110" s="16" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M110" s="17"/>
     </row>
@@ -24204,18 +24204,18 @@
       <c r="C111" s="22"/>
       <c r="D111" s="22"/>
       <c r="E111" s="19"/>
-      <c r="F111" s="33" t="s">
-        <v>467</v>
-      </c>
-      <c r="G111" s="34"/>
-      <c r="H111" s="34"/>
-      <c r="I111" s="34"/>
-      <c r="J111" s="35"/>
+      <c r="F111" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="32"/>
       <c r="K111" s="6" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="L111" s="16" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M111" s="17">
         <v>23232</v>
@@ -24226,15 +24226,15 @@
       <c r="C112" s="22"/>
       <c r="D112" s="22"/>
       <c r="E112" s="19"/>
-      <c r="F112" s="33" t="s">
-        <v>468</v>
-      </c>
-      <c r="G112" s="34"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="34"/>
-      <c r="J112" s="35"/>
+      <c r="F112" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="32"/>
       <c r="K112" s="6" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="L112" s="16"/>
       <c r="M112" s="17"/>
@@ -24244,15 +24244,15 @@
       <c r="C113" s="22"/>
       <c r="D113" s="22"/>
       <c r="E113" s="19"/>
-      <c r="F113" s="33" t="s">
-        <v>469</v>
-      </c>
-      <c r="G113" s="34"/>
-      <c r="H113" s="34"/>
-      <c r="I113" s="34"/>
-      <c r="J113" s="35"/>
+      <c r="F113" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
+      <c r="J113" s="32"/>
       <c r="K113" s="6" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="L113" s="16"/>
       <c r="M113" s="17"/>
@@ -24262,35 +24262,35 @@
       <c r="C114" s="22"/>
       <c r="D114" s="22"/>
       <c r="E114" s="19"/>
-      <c r="F114" s="29" t="s">
-        <v>470</v>
-      </c>
-      <c r="G114" s="29"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="29"/>
-      <c r="J114" s="29"/>
+      <c r="F114" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="G114" s="40"/>
+      <c r="H114" s="40"/>
+      <c r="I114" s="40"/>
+      <c r="J114" s="40"/>
       <c r="K114" s="6" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="L114" s="16" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M114" s="17"/>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B115" s="18"/>
       <c r="C115" s="19"/>
-      <c r="D115" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="E115" s="32"/>
-      <c r="F115" s="32"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="32"/>
-      <c r="J115" s="32"/>
+      <c r="D115" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="29"/>
       <c r="K115" s="5" t="s">
-        <v>260</v>
+        <v>499</v>
       </c>
       <c r="L115" s="16"/>
       <c r="M115" s="17"/>
@@ -24299,16 +24299,16 @@
       <c r="B116" s="18"/>
       <c r="C116" s="22"/>
       <c r="D116" s="19"/>
-      <c r="E116" s="32" t="s">
-        <v>472</v>
-      </c>
-      <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="32"/>
-      <c r="J116" s="32"/>
+      <c r="E116" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29"/>
       <c r="K116" s="5" t="s">
-        <v>261</v>
+        <v>500</v>
       </c>
       <c r="L116" s="16"/>
       <c r="M116" s="17"/>
@@ -24318,15 +24318,15 @@
       <c r="C117" s="22"/>
       <c r="D117" s="22"/>
       <c r="E117" s="19"/>
-      <c r="F117" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="34"/>
-      <c r="J117" s="35"/>
+      <c r="F117" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
+      <c r="J117" s="32"/>
       <c r="K117" s="6" t="s">
-        <v>262</v>
+        <v>501</v>
       </c>
       <c r="L117" s="16"/>
       <c r="M117" s="17"/>
@@ -24336,15 +24336,15 @@
       <c r="C118" s="22"/>
       <c r="D118" s="22"/>
       <c r="E118" s="19"/>
-      <c r="F118" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
-      <c r="J118" s="35"/>
+      <c r="F118" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="31"/>
+      <c r="J118" s="32"/>
       <c r="K118" s="6" t="s">
-        <v>263</v>
+        <v>502</v>
       </c>
       <c r="L118" s="16"/>
       <c r="M118" s="17"/>
@@ -24354,15 +24354,15 @@
       <c r="C119" s="22"/>
       <c r="D119" s="22"/>
       <c r="E119" s="19"/>
-      <c r="F119" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34"/>
-      <c r="J119" s="35"/>
+      <c r="F119" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="32"/>
       <c r="K119" s="6" t="s">
-        <v>546</v>
+        <v>503</v>
       </c>
       <c r="L119" s="16"/>
       <c r="M119" s="17"/>
@@ -24372,15 +24372,15 @@
       <c r="C120" s="22"/>
       <c r="D120" s="22"/>
       <c r="E120" s="19"/>
-      <c r="F120" s="33" t="s">
-        <v>479</v>
-      </c>
-      <c r="G120" s="34"/>
-      <c r="H120" s="34"/>
-      <c r="I120" s="34"/>
-      <c r="J120" s="35"/>
+      <c r="F120" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31"/>
+      <c r="J120" s="32"/>
       <c r="K120" s="6" t="s">
-        <v>264</v>
+        <v>504</v>
       </c>
       <c r="L120" s="16"/>
       <c r="M120" s="17"/>
@@ -24390,15 +24390,15 @@
       <c r="C121" s="22"/>
       <c r="D121" s="22"/>
       <c r="E121" s="19"/>
-      <c r="F121" s="33" t="s">
-        <v>476</v>
-      </c>
-      <c r="G121" s="34"/>
-      <c r="H121" s="34"/>
-      <c r="I121" s="34"/>
-      <c r="J121" s="35"/>
+      <c r="F121" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="31"/>
+      <c r="J121" s="32"/>
       <c r="K121" s="6" t="s">
-        <v>265</v>
+        <v>505</v>
       </c>
       <c r="L121" s="16"/>
       <c r="M121" s="17"/>
@@ -24408,15 +24408,15 @@
       <c r="C122" s="22"/>
       <c r="D122" s="22"/>
       <c r="E122" s="19"/>
-      <c r="F122" s="33" t="s">
-        <v>477</v>
-      </c>
-      <c r="G122" s="34"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="34"/>
-      <c r="J122" s="35"/>
+      <c r="F122" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="G122" s="31"/>
+      <c r="H122" s="31"/>
+      <c r="I122" s="31"/>
+      <c r="J122" s="32"/>
       <c r="K122" s="6" t="s">
-        <v>547</v>
+        <v>506</v>
       </c>
       <c r="L122" s="16"/>
       <c r="M122" s="17"/>
@@ -24426,15 +24426,15 @@
       <c r="C123" s="22"/>
       <c r="D123" s="22"/>
       <c r="E123" s="19"/>
-      <c r="F123" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="G123" s="34"/>
-      <c r="H123" s="34"/>
-      <c r="I123" s="34"/>
-      <c r="J123" s="35"/>
+      <c r="F123" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="G123" s="31"/>
+      <c r="H123" s="31"/>
+      <c r="I123" s="31"/>
+      <c r="J123" s="32"/>
       <c r="K123" s="6" t="s">
-        <v>266</v>
+        <v>507</v>
       </c>
       <c r="L123" s="16"/>
       <c r="M123" s="17"/>
@@ -24444,15 +24444,15 @@
       <c r="C124" s="22"/>
       <c r="D124" s="22"/>
       <c r="E124" s="19"/>
-      <c r="F124" s="33" t="s">
-        <v>480</v>
-      </c>
-      <c r="G124" s="34"/>
-      <c r="H124" s="34"/>
-      <c r="I124" s="34"/>
-      <c r="J124" s="35"/>
+      <c r="F124" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="G124" s="31"/>
+      <c r="H124" s="31"/>
+      <c r="I124" s="31"/>
+      <c r="J124" s="32"/>
       <c r="K124" s="6" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="L124" s="16"/>
       <c r="M124" s="17"/>
@@ -24462,15 +24462,15 @@
       <c r="C125" s="22"/>
       <c r="D125" s="22"/>
       <c r="E125" s="19"/>
-      <c r="F125" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="G125" s="34"/>
-      <c r="H125" s="34"/>
-      <c r="I125" s="34"/>
-      <c r="J125" s="35"/>
+      <c r="F125" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="G125" s="31"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31"/>
+      <c r="J125" s="32"/>
       <c r="K125" s="6" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="L125" s="16"/>
       <c r="M125" s="17"/>
@@ -24480,15 +24480,15 @@
       <c r="C126" s="22"/>
       <c r="D126" s="22"/>
       <c r="E126" s="19"/>
-      <c r="F126" s="33" t="s">
-        <v>482</v>
-      </c>
-      <c r="G126" s="34"/>
-      <c r="H126" s="34"/>
-      <c r="I126" s="34"/>
-      <c r="J126" s="35"/>
+      <c r="F126" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="G126" s="31"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="31"/>
+      <c r="J126" s="32"/>
       <c r="K126" s="6" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="L126" s="16"/>
       <c r="M126" s="17"/>
@@ -24498,15 +24498,15 @@
       <c r="C127" s="22"/>
       <c r="D127" s="22"/>
       <c r="E127" s="19"/>
-      <c r="F127" s="33" t="s">
-        <v>483</v>
-      </c>
-      <c r="G127" s="34"/>
-      <c r="H127" s="34"/>
-      <c r="I127" s="34"/>
-      <c r="J127" s="35"/>
+      <c r="F127" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="G127" s="31"/>
+      <c r="H127" s="31"/>
+      <c r="I127" s="31"/>
+      <c r="J127" s="32"/>
       <c r="K127" s="6" t="s">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="L127" s="16"/>
       <c r="M127" s="17"/>
@@ -24516,15 +24516,15 @@
       <c r="C128" s="22"/>
       <c r="D128" s="22"/>
       <c r="E128" s="19"/>
-      <c r="F128" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="G128" s="34"/>
-      <c r="H128" s="34"/>
-      <c r="I128" s="34"/>
-      <c r="J128" s="35"/>
+      <c r="F128" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="G128" s="31"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="31"/>
+      <c r="J128" s="32"/>
       <c r="K128" s="6" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="L128" s="16"/>
       <c r="M128" s="17"/>
@@ -24534,15 +24534,15 @@
       <c r="C129" s="22"/>
       <c r="D129" s="22"/>
       <c r="E129" s="19"/>
-      <c r="F129" s="33" t="s">
-        <v>485</v>
-      </c>
-      <c r="G129" s="34"/>
-      <c r="H129" s="34"/>
-      <c r="I129" s="34"/>
-      <c r="J129" s="35"/>
+      <c r="F129" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="G129" s="31"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="31"/>
+      <c r="J129" s="32"/>
       <c r="K129" s="6" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="L129" s="16"/>
       <c r="M129" s="17"/>
@@ -24552,15 +24552,15 @@
       <c r="C130" s="22"/>
       <c r="D130" s="22"/>
       <c r="E130" s="19"/>
-      <c r="F130" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="G130" s="29"/>
-      <c r="H130" s="29"/>
-      <c r="I130" s="29"/>
-      <c r="J130" s="29"/>
+      <c r="F130" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="G130" s="40"/>
+      <c r="H130" s="40"/>
+      <c r="I130" s="40"/>
+      <c r="J130" s="40"/>
       <c r="K130" s="6" t="s">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="L130" s="16"/>
       <c r="M130" s="17"/>
@@ -24568,17 +24568,17 @@
     <row r="131" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B131" s="18"/>
       <c r="C131" s="19"/>
-      <c r="D131" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="E131" s="32"/>
-      <c r="F131" s="32"/>
-      <c r="G131" s="32"/>
-      <c r="H131" s="32"/>
-      <c r="I131" s="32"/>
-      <c r="J131" s="32"/>
+      <c r="D131" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
+      <c r="J131" s="29"/>
       <c r="K131" s="5" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="L131" s="16"/>
       <c r="M131" s="17"/>
@@ -24587,16 +24587,16 @@
       <c r="B132" s="18"/>
       <c r="C132" s="22"/>
       <c r="D132" s="19"/>
-      <c r="E132" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F132" s="32"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="32"/>
-      <c r="I132" s="32"/>
-      <c r="J132" s="32"/>
+      <c r="E132" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="29"/>
       <c r="K132" s="5" t="s">
-        <v>438</v>
+        <v>516</v>
       </c>
       <c r="L132" s="16"/>
       <c r="M132" s="17"/>
@@ -24606,15 +24606,15 @@
       <c r="C133" s="22"/>
       <c r="D133" s="22"/>
       <c r="E133" s="19"/>
-      <c r="F133" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="G133" s="29"/>
-      <c r="H133" s="29"/>
-      <c r="I133" s="29"/>
-      <c r="J133" s="29"/>
+      <c r="F133" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G133" s="40"/>
+      <c r="H133" s="40"/>
+      <c r="I133" s="40"/>
+      <c r="J133" s="40"/>
       <c r="K133" s="6" t="s">
-        <v>439</v>
+        <v>517</v>
       </c>
       <c r="L133" s="16"/>
       <c r="M133" s="17"/>
@@ -24624,15 +24624,15 @@
       <c r="C134" s="22"/>
       <c r="D134" s="22"/>
       <c r="E134" s="19"/>
-      <c r="F134" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="G134" s="29"/>
-      <c r="H134" s="29"/>
-      <c r="I134" s="29"/>
-      <c r="J134" s="29"/>
+      <c r="F134" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G134" s="40"/>
+      <c r="H134" s="40"/>
+      <c r="I134" s="40"/>
+      <c r="J134" s="40"/>
       <c r="K134" s="6" t="s">
-        <v>440</v>
+        <v>518</v>
       </c>
       <c r="L134" s="16"/>
       <c r="M134" s="17"/>
@@ -24642,15 +24642,15 @@
       <c r="C135" s="22"/>
       <c r="D135" s="22"/>
       <c r="E135" s="19"/>
-      <c r="F135" s="29" t="s">
-        <v>554</v>
-      </c>
-      <c r="G135" s="29"/>
-      <c r="H135" s="29"/>
-      <c r="I135" s="29"/>
-      <c r="J135" s="29"/>
+      <c r="F135" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="G135" s="40"/>
+      <c r="H135" s="40"/>
+      <c r="I135" s="40"/>
+      <c r="J135" s="40"/>
       <c r="K135" s="6" t="s">
-        <v>441</v>
+        <v>519</v>
       </c>
       <c r="L135" s="16"/>
       <c r="M135" s="17"/>
@@ -24660,15 +24660,15 @@
       <c r="C136" s="22"/>
       <c r="D136" s="22"/>
       <c r="E136" s="19"/>
-      <c r="F136" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="G136" s="29"/>
-      <c r="H136" s="29"/>
-      <c r="I136" s="29"/>
-      <c r="J136" s="29"/>
+      <c r="F136" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G136" s="40"/>
+      <c r="H136" s="40"/>
+      <c r="I136" s="40"/>
+      <c r="J136" s="40"/>
       <c r="K136" s="6" t="s">
-        <v>442</v>
+        <v>520</v>
       </c>
       <c r="L136" s="16"/>
       <c r="M136" s="17"/>
@@ -24678,15 +24678,15 @@
       <c r="C137" s="22"/>
       <c r="D137" s="22"/>
       <c r="E137" s="19"/>
-      <c r="F137" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="G137" s="29"/>
-      <c r="H137" s="29"/>
-      <c r="I137" s="29"/>
-      <c r="J137" s="29"/>
+      <c r="F137" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="G137" s="40"/>
+      <c r="H137" s="40"/>
+      <c r="I137" s="40"/>
+      <c r="J137" s="40"/>
       <c r="K137" s="6" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="L137" s="16"/>
       <c r="M137" s="17"/>
@@ -24694,17 +24694,17 @@
     <row r="138" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B138" s="18"/>
       <c r="C138" s="19"/>
-      <c r="D138" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="E138" s="44"/>
-      <c r="F138" s="44"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="44"/>
-      <c r="I138" s="44"/>
-      <c r="J138" s="44"/>
+      <c r="D138" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="E138" s="46"/>
+      <c r="F138" s="46"/>
+      <c r="G138" s="46"/>
+      <c r="H138" s="46"/>
+      <c r="I138" s="46"/>
+      <c r="J138" s="46"/>
       <c r="K138" s="5" t="s">
-        <v>428</v>
+        <v>522</v>
       </c>
       <c r="L138" s="16"/>
       <c r="M138" s="17"/>
@@ -24713,16 +24713,16 @@
       <c r="B139" s="18"/>
       <c r="C139" s="22"/>
       <c r="D139" s="19"/>
-      <c r="E139" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="F139" s="32"/>
-      <c r="G139" s="32"/>
-      <c r="H139" s="32"/>
-      <c r="I139" s="32"/>
-      <c r="J139" s="32"/>
+      <c r="E139" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F139" s="29"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
+      <c r="I139" s="29"/>
+      <c r="J139" s="29"/>
       <c r="K139" s="5" t="s">
-        <v>429</v>
+        <v>523</v>
       </c>
       <c r="L139" s="16"/>
       <c r="M139" s="17"/>
@@ -24732,15 +24732,15 @@
       <c r="C140" s="22"/>
       <c r="D140" s="22"/>
       <c r="E140" s="19"/>
-      <c r="F140" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="G140" s="29"/>
-      <c r="H140" s="29"/>
-      <c r="I140" s="29"/>
-      <c r="J140" s="29"/>
+      <c r="F140" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="G140" s="40"/>
+      <c r="H140" s="40"/>
+      <c r="I140" s="40"/>
+      <c r="J140" s="40"/>
       <c r="K140" s="6" t="s">
-        <v>430</v>
+        <v>524</v>
       </c>
       <c r="L140" s="16"/>
       <c r="M140" s="17"/>
@@ -24750,19 +24750,19 @@
       <c r="C141" s="22"/>
       <c r="D141" s="22"/>
       <c r="E141" s="19"/>
-      <c r="F141" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="G141" s="29"/>
-      <c r="H141" s="29"/>
-      <c r="I141" s="29"/>
-      <c r="J141" s="29"/>
+      <c r="F141" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="G141" s="40"/>
+      <c r="H141" s="40"/>
+      <c r="I141" s="40"/>
+      <c r="J141" s="40"/>
       <c r="K141" s="6" t="s">
-        <v>431</v>
+        <v>525</v>
       </c>
       <c r="L141" s="16"/>
       <c r="M141" s="17" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.35">
@@ -24770,19 +24770,19 @@
       <c r="C142" s="22"/>
       <c r="D142" s="22"/>
       <c r="E142" s="19"/>
-      <c r="F142" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="G142" s="29"/>
-      <c r="H142" s="29"/>
-      <c r="I142" s="29"/>
-      <c r="J142" s="29"/>
+      <c r="F142" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="G142" s="40"/>
+      <c r="H142" s="40"/>
+      <c r="I142" s="40"/>
+      <c r="J142" s="40"/>
       <c r="K142" s="6" t="s">
-        <v>432</v>
+        <v>526</v>
       </c>
       <c r="L142" s="16"/>
       <c r="M142" s="17" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.35">
@@ -24790,19 +24790,19 @@
       <c r="C143" s="22"/>
       <c r="D143" s="22"/>
       <c r="E143" s="19"/>
-      <c r="F143" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="G143" s="29"/>
-      <c r="H143" s="29"/>
-      <c r="I143" s="29"/>
-      <c r="J143" s="29"/>
+      <c r="F143" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="G143" s="40"/>
+      <c r="H143" s="40"/>
+      <c r="I143" s="40"/>
+      <c r="J143" s="40"/>
       <c r="K143" s="6" t="s">
-        <v>433</v>
+        <v>527</v>
       </c>
       <c r="L143" s="16"/>
       <c r="M143" s="17" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.35">
@@ -24810,19 +24810,19 @@
       <c r="C144" s="22"/>
       <c r="D144" s="22"/>
       <c r="E144" s="19"/>
-      <c r="F144" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="G144" s="29"/>
-      <c r="H144" s="29"/>
-      <c r="I144" s="29"/>
-      <c r="J144" s="29"/>
+      <c r="F144" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="G144" s="40"/>
+      <c r="H144" s="40"/>
+      <c r="I144" s="40"/>
+      <c r="J144" s="40"/>
       <c r="K144" s="6" t="s">
-        <v>434</v>
+        <v>528</v>
       </c>
       <c r="L144" s="16"/>
       <c r="M144" s="17" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.35">
@@ -24830,15 +24830,15 @@
       <c r="C145" s="22"/>
       <c r="D145" s="22"/>
       <c r="E145" s="19"/>
-      <c r="F145" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="G145" s="29"/>
-      <c r="H145" s="29"/>
-      <c r="I145" s="29"/>
-      <c r="J145" s="29"/>
+      <c r="F145" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="G145" s="40"/>
+      <c r="H145" s="40"/>
+      <c r="I145" s="40"/>
+      <c r="J145" s="40"/>
       <c r="K145" s="6" t="s">
-        <v>435</v>
+        <v>529</v>
       </c>
       <c r="L145" s="16"/>
       <c r="M145" s="17">
@@ -24850,15 +24850,15 @@
       <c r="C146" s="22"/>
       <c r="D146" s="22"/>
       <c r="E146" s="19"/>
-      <c r="F146" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="G146" s="29"/>
-      <c r="H146" s="29"/>
-      <c r="I146" s="29"/>
-      <c r="J146" s="29"/>
+      <c r="F146" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="G146" s="40"/>
+      <c r="H146" s="40"/>
+      <c r="I146" s="40"/>
+      <c r="J146" s="40"/>
       <c r="K146" s="6" t="s">
-        <v>436</v>
+        <v>530</v>
       </c>
       <c r="L146" s="16"/>
       <c r="M146" s="17">
@@ -24870,15 +24870,15 @@
       <c r="C147" s="22"/>
       <c r="D147" s="22"/>
       <c r="E147" s="19"/>
-      <c r="F147" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="G147" s="29"/>
-      <c r="H147" s="29"/>
-      <c r="I147" s="29"/>
-      <c r="J147" s="29"/>
+      <c r="F147" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="G147" s="40"/>
+      <c r="H147" s="40"/>
+      <c r="I147" s="40"/>
+      <c r="J147" s="40"/>
       <c r="K147" s="6" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="L147" s="16"/>
       <c r="M147" s="17">
@@ -24890,15 +24890,15 @@
       <c r="C148" s="22"/>
       <c r="D148" s="22"/>
       <c r="E148" s="19"/>
-      <c r="F148" s="45" t="s">
-        <v>555</v>
-      </c>
-      <c r="G148" s="45"/>
-      <c r="H148" s="45"/>
-      <c r="I148" s="45"/>
-      <c r="J148" s="45"/>
+      <c r="F148" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="G148" s="43"/>
+      <c r="H148" s="43"/>
+      <c r="I148" s="43"/>
+      <c r="J148" s="43"/>
       <c r="K148" s="6" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="L148" s="16"/>
       <c r="M148" s="17"/>
@@ -24908,15 +24908,15 @@
       <c r="C149" s="22"/>
       <c r="D149" s="22"/>
       <c r="E149" s="19"/>
-      <c r="F149" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="G149" s="45"/>
-      <c r="H149" s="45"/>
-      <c r="I149" s="45"/>
-      <c r="J149" s="45"/>
+      <c r="F149" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G149" s="43"/>
+      <c r="H149" s="43"/>
+      <c r="I149" s="43"/>
+      <c r="J149" s="43"/>
       <c r="K149" s="6" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="L149" s="16"/>
       <c r="M149" s="17">
@@ -24928,15 +24928,15 @@
       <c r="C150" s="22"/>
       <c r="D150" s="22"/>
       <c r="E150" s="19"/>
-      <c r="F150" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="G150" s="45"/>
-      <c r="H150" s="45"/>
-      <c r="I150" s="45"/>
-      <c r="J150" s="45"/>
+      <c r="F150" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="G150" s="43"/>
+      <c r="H150" s="43"/>
+      <c r="I150" s="43"/>
+      <c r="J150" s="43"/>
       <c r="K150" s="6" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="L150" s="16"/>
       <c r="M150" s="17">
@@ -24946,17 +24946,17 @@
     <row r="151" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B151" s="18"/>
       <c r="C151" s="19"/>
-      <c r="D151" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="E151" s="44"/>
-      <c r="F151" s="44"/>
-      <c r="G151" s="44"/>
-      <c r="H151" s="44"/>
-      <c r="I151" s="44"/>
-      <c r="J151" s="44"/>
+      <c r="D151" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E151" s="46"/>
+      <c r="F151" s="46"/>
+      <c r="G151" s="46"/>
+      <c r="H151" s="46"/>
+      <c r="I151" s="46"/>
+      <c r="J151" s="46"/>
       <c r="K151" s="5" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="L151" s="16"/>
       <c r="M151" s="17"/>
@@ -24965,16 +24965,16 @@
       <c r="B152" s="18"/>
       <c r="C152" s="22"/>
       <c r="D152" s="19"/>
-      <c r="E152" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F152" s="32"/>
-      <c r="G152" s="32"/>
-      <c r="H152" s="32"/>
-      <c r="I152" s="32"/>
-      <c r="J152" s="32"/>
+      <c r="E152" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F152" s="29"/>
+      <c r="G152" s="29"/>
+      <c r="H152" s="29"/>
+      <c r="I152" s="29"/>
+      <c r="J152" s="29"/>
       <c r="K152" s="5" t="s">
-        <v>496</v>
+        <v>536</v>
       </c>
       <c r="L152" s="16"/>
       <c r="M152" s="17"/>
@@ -24984,15 +24984,15 @@
       <c r="C153" s="22"/>
       <c r="D153" s="22"/>
       <c r="E153" s="19"/>
-      <c r="F153" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="G153" s="29"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="29"/>
-      <c r="J153" s="29"/>
+      <c r="F153" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="G153" s="40"/>
+      <c r="H153" s="40"/>
+      <c r="I153" s="40"/>
+      <c r="J153" s="40"/>
       <c r="K153" s="6" t="s">
-        <v>497</v>
+        <v>537</v>
       </c>
       <c r="L153" s="16"/>
       <c r="M153" s="17"/>
@@ -25002,15 +25002,15 @@
       <c r="C154" s="22"/>
       <c r="D154" s="22"/>
       <c r="E154" s="19"/>
-      <c r="F154" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="G154" s="29"/>
-      <c r="H154" s="29"/>
-      <c r="I154" s="29"/>
-      <c r="J154" s="29"/>
+      <c r="F154" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="G154" s="40"/>
+      <c r="H154" s="40"/>
+      <c r="I154" s="40"/>
+      <c r="J154" s="40"/>
       <c r="K154" s="6" t="s">
-        <v>498</v>
+        <v>538</v>
       </c>
       <c r="L154" s="16"/>
       <c r="M154" s="17"/>
@@ -25020,15 +25020,15 @@
       <c r="C155" s="22"/>
       <c r="D155" s="22"/>
       <c r="E155" s="19"/>
-      <c r="F155" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="G155" s="29"/>
-      <c r="H155" s="29"/>
-      <c r="I155" s="29"/>
-      <c r="J155" s="29"/>
+      <c r="F155" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="G155" s="40"/>
+      <c r="H155" s="40"/>
+      <c r="I155" s="40"/>
+      <c r="J155" s="40"/>
       <c r="K155" s="6" t="s">
-        <v>499</v>
+        <v>539</v>
       </c>
       <c r="L155" s="16"/>
       <c r="M155" s="17"/>
@@ -25038,15 +25038,15 @@
       <c r="C156" s="22"/>
       <c r="D156" s="22"/>
       <c r="E156" s="19"/>
-      <c r="F156" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G156" s="29"/>
-      <c r="H156" s="29"/>
-      <c r="I156" s="29"/>
-      <c r="J156" s="29"/>
+      <c r="F156" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="G156" s="40"/>
+      <c r="H156" s="40"/>
+      <c r="I156" s="40"/>
+      <c r="J156" s="40"/>
       <c r="K156" s="6" t="s">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="L156" s="16"/>
       <c r="M156" s="17"/>
@@ -25056,15 +25056,15 @@
       <c r="C157" s="22"/>
       <c r="D157" s="22"/>
       <c r="E157" s="19"/>
-      <c r="F157" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="G157" s="29"/>
-      <c r="H157" s="29"/>
-      <c r="I157" s="29"/>
-      <c r="J157" s="29"/>
+      <c r="F157" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="G157" s="40"/>
+      <c r="H157" s="40"/>
+      <c r="I157" s="40"/>
+      <c r="J157" s="40"/>
       <c r="K157" s="6" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="L157" s="16"/>
       <c r="M157" s="17"/>
@@ -25074,15 +25074,15 @@
       <c r="C158" s="22"/>
       <c r="D158" s="22"/>
       <c r="E158" s="19"/>
-      <c r="F158" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="G158" s="29"/>
-      <c r="H158" s="29"/>
-      <c r="I158" s="29"/>
-      <c r="J158" s="29"/>
+      <c r="F158" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="G158" s="40"/>
+      <c r="H158" s="40"/>
+      <c r="I158" s="40"/>
+      <c r="J158" s="40"/>
       <c r="K158" s="6" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="L158" s="16"/>
       <c r="M158" s="17"/>
@@ -25092,15 +25092,15 @@
       <c r="C159" s="22"/>
       <c r="D159" s="22"/>
       <c r="E159" s="19"/>
-      <c r="F159" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="G159" s="45"/>
-      <c r="H159" s="45"/>
-      <c r="I159" s="45"/>
-      <c r="J159" s="45"/>
+      <c r="F159" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="G159" s="43"/>
+      <c r="H159" s="43"/>
+      <c r="I159" s="43"/>
+      <c r="J159" s="43"/>
       <c r="K159" s="6" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="L159" s="16"/>
       <c r="M159" s="17"/>
@@ -25108,17 +25108,17 @@
     <row r="160" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B160" s="18"/>
       <c r="C160" s="19"/>
-      <c r="D160" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="E160" s="44"/>
-      <c r="F160" s="44"/>
-      <c r="G160" s="44"/>
-      <c r="H160" s="44"/>
-      <c r="I160" s="44"/>
-      <c r="J160" s="44"/>
+      <c r="D160" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E160" s="46"/>
+      <c r="F160" s="46"/>
+      <c r="G160" s="46"/>
+      <c r="H160" s="46"/>
+      <c r="I160" s="46"/>
+      <c r="J160" s="46"/>
       <c r="K160" s="5" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="L160" s="16"/>
       <c r="M160" s="17"/>
@@ -25127,16 +25127,16 @@
       <c r="B161" s="18"/>
       <c r="C161" s="22"/>
       <c r="D161" s="19"/>
-      <c r="E161" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="F161" s="32"/>
-      <c r="G161" s="32"/>
-      <c r="H161" s="32"/>
-      <c r="I161" s="32"/>
-      <c r="J161" s="32"/>
+      <c r="E161" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F161" s="29"/>
+      <c r="G161" s="29"/>
+      <c r="H161" s="29"/>
+      <c r="I161" s="29"/>
+      <c r="J161" s="29"/>
       <c r="K161" s="5" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="L161" s="16"/>
       <c r="M161" s="17"/>
@@ -25146,15 +25146,15 @@
       <c r="C162" s="22"/>
       <c r="D162" s="22"/>
       <c r="E162" s="19"/>
-      <c r="F162" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="G162" s="29"/>
-      <c r="H162" s="29"/>
-      <c r="I162" s="29"/>
-      <c r="J162" s="29"/>
+      <c r="F162" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="G162" s="40"/>
+      <c r="H162" s="40"/>
+      <c r="I162" s="40"/>
+      <c r="J162" s="40"/>
       <c r="K162" s="6" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="L162" s="16"/>
       <c r="M162" s="17"/>
@@ -25164,15 +25164,15 @@
       <c r="C163" s="22"/>
       <c r="D163" s="22"/>
       <c r="E163" s="19"/>
-      <c r="F163" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="G163" s="29"/>
-      <c r="H163" s="29"/>
-      <c r="I163" s="29"/>
-      <c r="J163" s="29"/>
+      <c r="F163" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="G163" s="40"/>
+      <c r="H163" s="40"/>
+      <c r="I163" s="40"/>
+      <c r="J163" s="40"/>
       <c r="K163" s="6" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="L163" s="16"/>
       <c r="M163" s="17"/>
@@ -25182,15 +25182,15 @@
       <c r="C164" s="22"/>
       <c r="D164" s="22"/>
       <c r="E164" s="19"/>
-      <c r="F164" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="G164" s="29"/>
-      <c r="H164" s="29"/>
-      <c r="I164" s="29"/>
-      <c r="J164" s="29"/>
+      <c r="F164" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G164" s="40"/>
+      <c r="H164" s="40"/>
+      <c r="I164" s="40"/>
+      <c r="J164" s="40"/>
       <c r="K164" s="6" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="L164" s="16"/>
       <c r="M164" s="17"/>
@@ -25200,15 +25200,15 @@
       <c r="C165" s="22"/>
       <c r="D165" s="22"/>
       <c r="E165" s="19"/>
-      <c r="F165" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="G165" s="45"/>
-      <c r="H165" s="45"/>
-      <c r="I165" s="45"/>
-      <c r="J165" s="45"/>
+      <c r="F165" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="G165" s="43"/>
+      <c r="H165" s="43"/>
+      <c r="I165" s="43"/>
+      <c r="J165" s="43"/>
       <c r="K165" s="6" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="L165" s="16"/>
       <c r="M165" s="17"/>
@@ -25216,17 +25216,17 @@
     <row r="166" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B166" s="18"/>
       <c r="C166" s="19"/>
-      <c r="D166" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="E166" s="44"/>
-      <c r="F166" s="44"/>
-      <c r="G166" s="44"/>
-      <c r="H166" s="44"/>
-      <c r="I166" s="44"/>
-      <c r="J166" s="44"/>
+      <c r="D166" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E166" s="46"/>
+      <c r="F166" s="46"/>
+      <c r="G166" s="46"/>
+      <c r="H166" s="46"/>
+      <c r="I166" s="46"/>
+      <c r="J166" s="46"/>
       <c r="K166" s="5" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="L166" s="16"/>
       <c r="M166" s="17"/>
@@ -25235,16 +25235,16 @@
       <c r="B167" s="18"/>
       <c r="C167" s="22"/>
       <c r="D167" s="19"/>
-      <c r="E167" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="F167" s="32"/>
-      <c r="G167" s="32"/>
-      <c r="H167" s="32"/>
-      <c r="I167" s="32"/>
-      <c r="J167" s="32"/>
+      <c r="E167" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F167" s="29"/>
+      <c r="G167" s="29"/>
+      <c r="H167" s="29"/>
+      <c r="I167" s="29"/>
+      <c r="J167" s="29"/>
       <c r="K167" s="5" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="L167" s="16"/>
       <c r="M167" s="17"/>
@@ -25254,15 +25254,15 @@
       <c r="C168" s="22"/>
       <c r="D168" s="22"/>
       <c r="E168" s="19"/>
-      <c r="F168" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="G168" s="29"/>
-      <c r="H168" s="29"/>
-      <c r="I168" s="29"/>
-      <c r="J168" s="29"/>
+      <c r="F168" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="G168" s="40"/>
+      <c r="H168" s="40"/>
+      <c r="I168" s="40"/>
+      <c r="J168" s="40"/>
       <c r="K168" s="6" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="L168" s="16"/>
       <c r="M168" s="17"/>
@@ -25272,15 +25272,15 @@
       <c r="C169" s="22"/>
       <c r="D169" s="22"/>
       <c r="E169" s="19"/>
-      <c r="F169" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="G169" s="29"/>
-      <c r="H169" s="29"/>
-      <c r="I169" s="29"/>
-      <c r="J169" s="29"/>
+      <c r="F169" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="G169" s="40"/>
+      <c r="H169" s="40"/>
+      <c r="I169" s="40"/>
+      <c r="J169" s="40"/>
       <c r="K169" s="6" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="L169" s="16"/>
       <c r="M169" s="17"/>
@@ -25290,15 +25290,15 @@
       <c r="C170" s="22"/>
       <c r="D170" s="22"/>
       <c r="E170" s="19"/>
-      <c r="F170" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="G170" s="29"/>
-      <c r="H170" s="29"/>
-      <c r="I170" s="29"/>
-      <c r="J170" s="29"/>
+      <c r="F170" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="G170" s="40"/>
+      <c r="H170" s="40"/>
+      <c r="I170" s="40"/>
+      <c r="J170" s="40"/>
       <c r="K170" s="6" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="L170" s="16"/>
       <c r="M170" s="17"/>
@@ -25308,15 +25308,15 @@
       <c r="C171" s="22"/>
       <c r="D171" s="22"/>
       <c r="E171" s="19"/>
-      <c r="F171" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="G171" s="29"/>
-      <c r="H171" s="29"/>
-      <c r="I171" s="29"/>
-      <c r="J171" s="29"/>
+      <c r="F171" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="G171" s="40"/>
+      <c r="H171" s="40"/>
+      <c r="I171" s="40"/>
+      <c r="J171" s="40"/>
       <c r="K171" s="6" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="L171" s="16"/>
       <c r="M171" s="17"/>
@@ -25326,15 +25326,15 @@
       <c r="C172" s="22"/>
       <c r="D172" s="22"/>
       <c r="E172" s="19"/>
-      <c r="F172" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="G172" s="29"/>
-      <c r="H172" s="29"/>
-      <c r="I172" s="29"/>
-      <c r="J172" s="29"/>
+      <c r="F172" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G172" s="40"/>
+      <c r="H172" s="40"/>
+      <c r="I172" s="40"/>
+      <c r="J172" s="40"/>
       <c r="K172" s="6" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="L172" s="16"/>
       <c r="M172" s="17"/>
@@ -25344,21 +25344,170 @@
       <c r="C173" s="24"/>
       <c r="D173" s="24"/>
       <c r="E173" s="25"/>
-      <c r="F173" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="G173" s="43"/>
-      <c r="H173" s="43"/>
-      <c r="I173" s="43"/>
-      <c r="J173" s="43"/>
+      <c r="F173" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="G173" s="48"/>
+      <c r="H173" s="48"/>
+      <c r="I173" s="48"/>
+      <c r="J173" s="48"/>
       <c r="K173" s="26" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="L173" s="27"/>
       <c r="M173" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="173">
+    <mergeCell ref="F113:J113"/>
+    <mergeCell ref="F104:J104"/>
+    <mergeCell ref="F105:J105"/>
+    <mergeCell ref="F106:J106"/>
+    <mergeCell ref="F107:J107"/>
+    <mergeCell ref="F108:J108"/>
+    <mergeCell ref="F109:J109"/>
+    <mergeCell ref="F110:J110"/>
+    <mergeCell ref="F111:J111"/>
+    <mergeCell ref="F112:J112"/>
+    <mergeCell ref="F169:J169"/>
+    <mergeCell ref="F170:J170"/>
+    <mergeCell ref="F171:J171"/>
+    <mergeCell ref="F172:J172"/>
+    <mergeCell ref="F173:J173"/>
+    <mergeCell ref="D160:J160"/>
+    <mergeCell ref="E161:J161"/>
+    <mergeCell ref="F162:J162"/>
+    <mergeCell ref="F163:J163"/>
+    <mergeCell ref="F164:J164"/>
+    <mergeCell ref="F165:J165"/>
+    <mergeCell ref="F158:J158"/>
+    <mergeCell ref="F159:J159"/>
+    <mergeCell ref="F156:J156"/>
+    <mergeCell ref="D166:J166"/>
+    <mergeCell ref="E167:J167"/>
+    <mergeCell ref="F168:J168"/>
+    <mergeCell ref="D151:J151"/>
+    <mergeCell ref="E152:J152"/>
+    <mergeCell ref="F153:J153"/>
+    <mergeCell ref="F154:J154"/>
+    <mergeCell ref="F155:J155"/>
+    <mergeCell ref="F157:J157"/>
+    <mergeCell ref="F140:J140"/>
+    <mergeCell ref="F145:J145"/>
+    <mergeCell ref="F146:J146"/>
+    <mergeCell ref="F147:J147"/>
+    <mergeCell ref="F150:J150"/>
+    <mergeCell ref="F141:J141"/>
+    <mergeCell ref="F142:J142"/>
+    <mergeCell ref="F143:J143"/>
+    <mergeCell ref="F144:J144"/>
+    <mergeCell ref="F149:J149"/>
+    <mergeCell ref="F148:J148"/>
+    <mergeCell ref="D138:J138"/>
+    <mergeCell ref="E139:J139"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="F96:J96"/>
+    <mergeCell ref="F97:J97"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F102:J102"/>
+    <mergeCell ref="F103:J103"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="F137:J137"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="D80:J80"/>
+    <mergeCell ref="D100:J100"/>
+    <mergeCell ref="D131:J131"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E81:J81"/>
+    <mergeCell ref="F114:J114"/>
+    <mergeCell ref="F133:J133"/>
+    <mergeCell ref="F134:J134"/>
+    <mergeCell ref="F135:J135"/>
+    <mergeCell ref="F136:J136"/>
+    <mergeCell ref="E132:J132"/>
+    <mergeCell ref="F98:J98"/>
+    <mergeCell ref="F99:J99"/>
+    <mergeCell ref="E101:J101"/>
+    <mergeCell ref="F89:J89"/>
+    <mergeCell ref="F90:J90"/>
+    <mergeCell ref="F92:J92"/>
+    <mergeCell ref="F93:J93"/>
+    <mergeCell ref="F94:J94"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="F91:J91"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
     <mergeCell ref="F124:J124"/>
     <mergeCell ref="F125:J125"/>
     <mergeCell ref="F126:J126"/>
@@ -25383,155 +25532,6 @@
     <mergeCell ref="D28:J28"/>
     <mergeCell ref="D29:J29"/>
     <mergeCell ref="D17:J17"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="F137:J137"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="D80:J80"/>
-    <mergeCell ref="D100:J100"/>
-    <mergeCell ref="D131:J131"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E81:J81"/>
-    <mergeCell ref="F114:J114"/>
-    <mergeCell ref="F133:J133"/>
-    <mergeCell ref="F134:J134"/>
-    <mergeCell ref="F135:J135"/>
-    <mergeCell ref="F136:J136"/>
-    <mergeCell ref="E132:J132"/>
-    <mergeCell ref="F98:J98"/>
-    <mergeCell ref="F99:J99"/>
-    <mergeCell ref="E101:J101"/>
-    <mergeCell ref="F89:J89"/>
-    <mergeCell ref="F90:J90"/>
-    <mergeCell ref="F92:J92"/>
-    <mergeCell ref="F93:J93"/>
-    <mergeCell ref="F94:J94"/>
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="F91:J91"/>
-    <mergeCell ref="D138:J138"/>
-    <mergeCell ref="E139:J139"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="F96:J96"/>
-    <mergeCell ref="F97:J97"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F102:J102"/>
-    <mergeCell ref="F103:J103"/>
-    <mergeCell ref="F140:J140"/>
-    <mergeCell ref="F145:J145"/>
-    <mergeCell ref="F146:J146"/>
-    <mergeCell ref="F147:J147"/>
-    <mergeCell ref="F150:J150"/>
-    <mergeCell ref="F141:J141"/>
-    <mergeCell ref="F142:J142"/>
-    <mergeCell ref="F143:J143"/>
-    <mergeCell ref="F144:J144"/>
-    <mergeCell ref="F149:J149"/>
-    <mergeCell ref="F148:J148"/>
-    <mergeCell ref="F158:J158"/>
-    <mergeCell ref="F159:J159"/>
-    <mergeCell ref="F156:J156"/>
-    <mergeCell ref="D166:J166"/>
-    <mergeCell ref="E167:J167"/>
-    <mergeCell ref="F168:J168"/>
-    <mergeCell ref="D151:J151"/>
-    <mergeCell ref="E152:J152"/>
-    <mergeCell ref="F153:J153"/>
-    <mergeCell ref="F154:J154"/>
-    <mergeCell ref="F155:J155"/>
-    <mergeCell ref="F157:J157"/>
-    <mergeCell ref="F169:J169"/>
-    <mergeCell ref="F170:J170"/>
-    <mergeCell ref="F171:J171"/>
-    <mergeCell ref="F172:J172"/>
-    <mergeCell ref="F173:J173"/>
-    <mergeCell ref="D160:J160"/>
-    <mergeCell ref="E161:J161"/>
-    <mergeCell ref="F162:J162"/>
-    <mergeCell ref="F163:J163"/>
-    <mergeCell ref="F164:J164"/>
-    <mergeCell ref="F165:J165"/>
-    <mergeCell ref="F113:J113"/>
-    <mergeCell ref="F104:J104"/>
-    <mergeCell ref="F105:J105"/>
-    <mergeCell ref="F106:J106"/>
-    <mergeCell ref="F107:J107"/>
-    <mergeCell ref="F108:J108"/>
-    <mergeCell ref="F109:J109"/>
-    <mergeCell ref="F110:J110"/>
-    <mergeCell ref="F111:J111"/>
-    <mergeCell ref="F112:J112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
